--- a/biology/Botanique/Alexandre_Girault/Alexandre_Girault.xlsx
+++ b/biology/Botanique/Alexandre_Girault/Alexandre_Girault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Alexandre Girault’ est un cultivar de rosier obtenu en 1909 par la maison Barbier en France[1].
+‘Alexandre Girault’ est un cultivar de rosier obtenu en 1909 par la maison Barbier en France.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un rosier liane hybride de wichuraiana pouvant atteindre de 6 à 8 mètres de hauteur[2].
-De couleur carmin[3], ce rosier fleurit une fois de façon exubérante en juin. Ses fleurs sont doubles, son feuillage vert foncé et lustré. ‘Alexandre Girault’ est peu épineux. Il est à l'aise sur une pergola ou palissé sur une tonnelle. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un rosier liane hybride de wichuraiana pouvant atteindre de 6 à 8 mètres de hauteur.
+De couleur carmin, ce rosier fleurit une fois de façon exubérante en juin. Ses fleurs sont doubles, son feuillage vert foncé et lustré. ‘Alexandre Girault’ est peu épineux. Il est à l'aise sur une pergola ou palissé sur une tonnelle. On peut l'admirer à la roseraie du Val-de-Marne de L'Haÿ-les-Roses,.
 </t>
         </is>
       </c>
